--- a/data/custom_message.xlsx
+++ b/data/custom_message.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
